--- a/src/test/resources/TestData/EATestData.xlsx
+++ b/src/test/resources/TestData/EATestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="2625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BandNames" sheetId="1" r:id="rId1"/>
     <sheet name="FestivalNames" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R15"/>
+  <oleSize ref="A1:S8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
-  <si>
-    <t>Sr.No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>BandNames</t>
   </si>
@@ -57,14 +54,25 @@
   </si>
   <si>
     <t>FestivalNames</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,61 +385,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -439,6 +430,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -446,55 +438,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/EATestData.xlsx
+++ b/src/test/resources/TestData/EATestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="2625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16830" windowHeight="2625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BandNames" sheetId="1" r:id="rId1"/>
     <sheet name="FestivalNames" sheetId="2" r:id="rId2"/>
+    <sheet name="BandFestival" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:S8"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>BandNames</t>
   </si>
@@ -38,32 +39,35 @@
     <t>Frank Jupiter</t>
   </si>
   <si>
-    <t>Green Mild Cold Capcicum</t>
-  </si>
-  <si>
-    <t>Trainrella</t>
-  </si>
-  <si>
     <t>Twisted Tour</t>
   </si>
   <si>
     <t>LOL-palooza</t>
   </si>
   <si>
-    <t>Small night In</t>
-  </si>
-  <si>
     <t>FestivalNames</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Adrian_Venti</t>
+  </si>
+  <si>
+    <t>Critter_Girls</t>
+  </si>
+  <si>
+    <t>Frank_Jupiter</t>
+  </si>
+  <si>
+    <t>Trainerella</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +82,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +402,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +417,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,19 +427,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25"/>
@@ -438,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,32 +461,88 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
